--- a/test/audiences_85.xlsx
+++ b/test/audiences_85.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="6">
   <si>
     <t>audience</t>
   </si>
@@ -28,6 +28,15 @@
   </si>
   <si>
     <t>any</t>
+  </si>
+  <si>
+    <t>Спортивный зал</t>
+  </si>
+  <si>
+    <t>Спортивные снаряды</t>
+  </si>
+  <si>
+    <t>Компьютерный класс</t>
   </si>
 </sst>
 </file>
@@ -345,13 +354,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -447,7 +459,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -492,7 +504,7 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -674,6 +686,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
